--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H2">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I2">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J2">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9636299999999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N2">
-        <v>2.89089</v>
+        <v>0.38615</v>
       </c>
       <c r="O2">
-        <v>0.004634280881909668</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P2">
-        <v>0.004636691828827674</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q2">
-        <v>0.5046270129899999</v>
+        <v>0.1845724918666667</v>
       </c>
       <c r="R2">
-        <v>4.541643116909999</v>
+        <v>1.6611524268</v>
       </c>
       <c r="S2">
-        <v>6.54215836981767E-06</v>
+        <v>2.613580885516932E-06</v>
       </c>
       <c r="T2">
-        <v>6.54993731645275E-06</v>
+        <v>2.619596021279381E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H3">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I3">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J3">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.62512099999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N3">
-        <v>214.875363</v>
+        <v>2.89089</v>
       </c>
       <c r="O3">
-        <v>0.3444588990740914</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P3">
-        <v>0.344638101013349</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q3">
-        <v>37.50814198943299</v>
+        <v>1.38179145672</v>
       </c>
       <c r="R3">
-        <v>337.5732779048969</v>
+        <v>12.43612311048</v>
       </c>
       <c r="S3">
-        <v>0.0004862684690590303</v>
+        <v>1.956642456592527E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004868466660786231</v>
+        <v>1.961145653750188E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H4">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I4">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J4">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.324361</v>
+        <v>102.566826</v>
       </c>
       <c r="N4">
-        <v>0.648722</v>
+        <v>307.700478</v>
       </c>
       <c r="O4">
-        <v>0.001559914055329433</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P4">
-        <v>0.001040483725282092</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q4">
-        <v>0.169859097953</v>
+        <v>147.075084741744</v>
       </c>
       <c r="R4">
-        <v>1.019154587718</v>
+        <v>1323.675762675696</v>
       </c>
       <c r="S4">
-        <v>2.202111838560889E-06</v>
+        <v>0.002082610611848305</v>
       </c>
       <c r="T4">
-        <v>1.469820171574796E-06</v>
+        <v>0.002087403723720222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H5">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I5">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J5">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>135.0220616666667</v>
+        <v>0.8471995</v>
       </c>
       <c r="N5">
-        <v>405.066185</v>
+        <v>1.694399</v>
       </c>
       <c r="O5">
-        <v>0.6493469059886695</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P5">
-        <v>0.6496847234325412</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q5">
-        <v>70.70740809916833</v>
+        <v>1.214836639828</v>
       </c>
       <c r="R5">
-        <v>636.3666728925149</v>
+        <v>7.289019838968001</v>
       </c>
       <c r="S5">
-        <v>0.0009166751874086745</v>
+        <v>1.720231324163798E-05</v>
       </c>
       <c r="T5">
-        <v>0.000917765159091025</v>
+        <v>1.149460281978444E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>290.8976950000001</v>
+        <v>1.433944</v>
       </c>
       <c r="H6">
-        <v>872.6930850000001</v>
+        <v>4.301832</v>
       </c>
       <c r="I6">
-        <v>0.7841854820267643</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J6">
-        <v>0.78470967813754</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9636299999999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N6">
-        <v>2.89089</v>
+        <v>260.184174</v>
       </c>
       <c r="O6">
-        <v>0.004634280881909668</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P6">
-        <v>0.004636691828827674</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q6">
-        <v>280.31774583285</v>
+        <v>124.363178400752</v>
       </c>
       <c r="R6">
-        <v>2522.85971249565</v>
+        <v>1119.268605606768</v>
       </c>
       <c r="S6">
-        <v>0.003634135787227751</v>
+        <v>0.001761005785006892</v>
       </c>
       <c r="T6">
-        <v>0.003638456952622326</v>
+        <v>0.0017650587259103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J7">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>71.62512099999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N7">
-        <v>214.875363</v>
+        <v>0.38615</v>
       </c>
       <c r="O7">
-        <v>0.3444588990740914</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P7">
-        <v>0.344638101013349</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q7">
-        <v>20835.5826029961</v>
+        <v>37.44338164141668</v>
       </c>
       <c r="R7">
-        <v>187520.2434269649</v>
+        <v>336.9904347727501</v>
       </c>
       <c r="S7">
-        <v>0.2701196678088249</v>
+        <v>0.000530205262752893</v>
       </c>
       <c r="T7">
-        <v>0.2704408533201181</v>
+        <v>0.0005314255259768465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J8">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.324361</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N8">
-        <v>0.648722</v>
+        <v>2.89089</v>
       </c>
       <c r="O8">
-        <v>0.001559914055329433</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P8">
-        <v>0.001040483725282092</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q8">
-        <v>94.35586724789502</v>
+        <v>280.3177458328501</v>
       </c>
       <c r="R8">
-        <v>566.1352034873701</v>
+        <v>2522.85971249565</v>
       </c>
       <c r="S8">
-        <v>0.001223261955398836</v>
+        <v>0.003969351526711669</v>
       </c>
       <c r="T8">
-        <v>0.0008164776491734588</v>
+        <v>0.003978486957895134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J9">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>135.0220616666667</v>
+        <v>102.566826</v>
       </c>
       <c r="N9">
-        <v>405.066185</v>
+        <v>307.700478</v>
       </c>
       <c r="O9">
-        <v>0.6493469059886695</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P9">
-        <v>0.6496847234325412</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q9">
-        <v>39277.6065129812</v>
+        <v>29836.45326686607</v>
       </c>
       <c r="R9">
-        <v>353498.4586168308</v>
+        <v>268528.0794017946</v>
       </c>
       <c r="S9">
-        <v>0.5092084164753128</v>
+        <v>0.4224897391873126</v>
       </c>
       <c r="T9">
-        <v>0.5098138902156262</v>
+        <v>0.4234620959846615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.68424166666667</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H10">
-        <v>116.052725</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.1042827812651277</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J10">
-        <v>0.1043524900644015</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.9636299999999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N10">
-        <v>2.89089</v>
+        <v>1.694399</v>
       </c>
       <c r="O10">
-        <v>0.004634280881909668</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P10">
-        <v>0.004636691828827674</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q10">
-        <v>37.27729579724999</v>
+        <v>246.4483817551526</v>
       </c>
       <c r="R10">
-        <v>335.4956621752499</v>
+        <v>1478.690290530915</v>
       </c>
       <c r="S10">
-        <v>0.000483275699529349</v>
+        <v>0.00348975501878767</v>
       </c>
       <c r="T10">
-        <v>0.0004838503379994316</v>
+        <v>0.002331857774931096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.68424166666667</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H11">
-        <v>116.052725</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.1042827812651277</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J11">
-        <v>0.1043524900644015</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.62512099999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N11">
-        <v>214.875363</v>
+        <v>260.184174</v>
       </c>
       <c r="O11">
-        <v>0.3444588990740914</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P11">
-        <v>0.344638101013349</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q11">
-        <v>2770.763490168241</v>
+        <v>25228.99216402631</v>
       </c>
       <c r="R11">
-        <v>24936.87141151417</v>
+        <v>227060.9294762368</v>
       </c>
       <c r="S11">
-        <v>0.03592113202697017</v>
+        <v>0.3572472312309061</v>
       </c>
       <c r="T11">
-        <v>0.03596384401180971</v>
+        <v>0.3580694329115663</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H12">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I12">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J12">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.324361</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>0.648722</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.001559914055329433</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P12">
-        <v>0.001040483725282092</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q12">
-        <v>12.54765931124167</v>
+        <v>7.041748978427777</v>
       </c>
       <c r="R12">
-        <v>75.28595586745</v>
+        <v>63.37574080584999</v>
       </c>
       <c r="S12">
-        <v>0.0001626721762243176</v>
+        <v>9.971247797814972E-05</v>
       </c>
       <c r="T12">
-        <v>0.000108577067604671</v>
+        <v>9.994196545855353E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H13">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I13">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J13">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>135.0220616666667</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N13">
-        <v>405.066185</v>
+        <v>2.89089</v>
       </c>
       <c r="O13">
-        <v>0.6493469059886695</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P13">
-        <v>0.6496847234325412</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q13">
-        <v>5223.226063844902</v>
+        <v>52.71765299559</v>
       </c>
       <c r="R13">
-        <v>47009.03457460413</v>
+        <v>474.45887696031</v>
       </c>
       <c r="S13">
-        <v>0.06771570136240386</v>
+        <v>0.0007464917919519701</v>
       </c>
       <c r="T13">
-        <v>0.06779621864698772</v>
+        <v>0.0007482098369143541</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7434085</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H14">
-        <v>1.486817</v>
+        <v>164.122079</v>
       </c>
       <c r="I14">
-        <v>0.002004038405719556</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J14">
-        <v>0.001336918682608127</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,95 +1302,95 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9636299999999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N14">
-        <v>2.89089</v>
+        <v>307.700478</v>
       </c>
       <c r="O14">
-        <v>0.004634280881909668</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P14">
-        <v>0.004636691828827674</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q14">
-        <v>0.716370732855</v>
+        <v>5611.160239850417</v>
       </c>
       <c r="R14">
-        <v>4.298224397129999</v>
+        <v>50500.44215865375</v>
       </c>
       <c r="S14">
-        <v>9.287276870238869E-06</v>
+        <v>0.07945507480626994</v>
       </c>
       <c r="T14">
-        <v>6.198879931456163E-06</v>
+        <v>0.07963794003329382</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7434085</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H15">
-        <v>1.486817</v>
+        <v>164.122079</v>
       </c>
       <c r="I15">
-        <v>0.002004038405719556</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J15">
-        <v>0.001336918682608127</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>71.62512099999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N15">
-        <v>214.875363</v>
+        <v>1.694399</v>
       </c>
       <c r="O15">
-        <v>0.3444588990740914</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P15">
-        <v>0.344638101013349</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q15">
-        <v>53.2467237649285</v>
+        <v>46.34804775592016</v>
       </c>
       <c r="R15">
-        <v>319.480342589571</v>
+        <v>278.088286535521</v>
       </c>
       <c r="S15">
-        <v>0.0006903088629363556</v>
+        <v>0.0006562969945890154</v>
       </c>
       <c r="T15">
-        <v>0.0004607531159833332</v>
+        <v>0.0004385383046251655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7434085</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H16">
-        <v>1.486817</v>
+        <v>164.122079</v>
       </c>
       <c r="I16">
-        <v>0.002004038405719556</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J16">
-        <v>0.001336918682608127</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.324361</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N16">
-        <v>0.648722</v>
+        <v>260.184174</v>
       </c>
       <c r="O16">
-        <v>0.001559914055329433</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P16">
-        <v>0.001040483725282092</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q16">
-        <v>0.2411327244685</v>
+        <v>4744.663062197526</v>
       </c>
       <c r="R16">
-        <v>0.964530897874</v>
+        <v>42701.96755977774</v>
       </c>
       <c r="S16">
-        <v>3.126127676501925E-06</v>
+        <v>0.06718531327266106</v>
       </c>
       <c r="T16">
-        <v>1.391042131279331E-06</v>
+        <v>0.06733993974043838</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H17">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I17">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J17">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>135.0220616666667</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N17">
-        <v>405.066185</v>
+        <v>0.38615</v>
       </c>
       <c r="O17">
-        <v>0.6493469059886695</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P17">
-        <v>0.6496847234325412</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q17">
-        <v>100.3765483305242</v>
+        <v>0.1170320251</v>
       </c>
       <c r="R17">
-        <v>602.2592899831451</v>
+        <v>0.7021921506</v>
       </c>
       <c r="S17">
-        <v>0.00130131613823646</v>
+        <v>1.657195287885354E-06</v>
       </c>
       <c r="T17">
-        <v>0.0008685756445620587</v>
+        <v>1.107339539833114E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H18">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I18">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J18">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9636299999999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N18">
         <v>2.89089</v>
       </c>
       <c r="O18">
-        <v>0.004634280881909668</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P18">
-        <v>0.004636691828827674</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q18">
-        <v>38.64753557874</v>
+        <v>0.8761535958600001</v>
       </c>
       <c r="R18">
-        <v>347.82782020866</v>
+        <v>5.25692157516</v>
       </c>
       <c r="S18">
-        <v>0.0005010399599125116</v>
+        <v>1.240649821518811E-05</v>
       </c>
       <c r="T18">
-        <v>0.0005016357209580075</v>
+        <v>8.290034448551471E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H19">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I19">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J19">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.62512099999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N19">
-        <v>214.875363</v>
+        <v>307.700478</v>
       </c>
       <c r="O19">
-        <v>0.3444588990740914</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P19">
-        <v>0.344638101013349</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q19">
-        <v>2872.611284599958</v>
+        <v>93.25601466937199</v>
       </c>
       <c r="R19">
-        <v>25853.50156139962</v>
+        <v>559.5360880162319</v>
       </c>
       <c r="S19">
-        <v>0.03724152190630096</v>
+        <v>0.001320522548806606</v>
       </c>
       <c r="T19">
-        <v>0.03728580389935923</v>
+        <v>0.0008823744806809507</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H20">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I20">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J20">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.324361</v>
+        <v>0.8471995</v>
       </c>
       <c r="N20">
-        <v>0.648722</v>
+        <v>1.694399</v>
       </c>
       <c r="O20">
-        <v>0.001559914055329433</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P20">
-        <v>0.001040483725282092</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q20">
-        <v>13.008886489478</v>
+        <v>0.770292423789</v>
       </c>
       <c r="R20">
-        <v>78.05331893686801</v>
+        <v>3.081169695156</v>
       </c>
       <c r="S20">
-        <v>0.0001686516841912168</v>
+        <v>1.090748428822085E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001125681462011078</v>
+        <v>4.858927900954779E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H21">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I21">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J21">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>135.0220616666667</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N21">
-        <v>405.066185</v>
+        <v>260.184174</v>
       </c>
       <c r="O21">
-        <v>0.6493469059886695</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P21">
-        <v>0.6496847234325412</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q21">
-        <v>5415.221539571544</v>
+        <v>78.85505835087599</v>
       </c>
       <c r="R21">
-        <v>48736.9938561439</v>
+        <v>473.130350105256</v>
       </c>
       <c r="S21">
-        <v>0.07020479682530778</v>
+        <v>0.001116602323281478</v>
       </c>
       <c r="T21">
-        <v>0.07028827376627429</v>
+        <v>0.0007461147831387253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H22">
+        <v>64.018697</v>
+      </c>
+      <c r="I22">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J22">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.38615</v>
+      </c>
+      <c r="O22">
+        <v>0.0006730831187380127</v>
+      </c>
+      <c r="P22">
+        <v>0.0006740785444489584</v>
+      </c>
+      <c r="Q22">
+        <v>2.746757760727778</v>
+      </c>
+      <c r="R22">
+        <v>24.72081984655</v>
+      </c>
+      <c r="S22">
+        <v>3.889460183356769E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.898411745244591E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H23">
+        <v>64.018697</v>
+      </c>
+      <c r="I23">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J23">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.89089</v>
+      </c>
+      <c r="O23">
+        <v>0.005038998464660193</v>
+      </c>
+      <c r="P23">
+        <v>0.005046450662597565</v>
+      </c>
+      <c r="Q23">
+        <v>20.56344566337</v>
+      </c>
+      <c r="R23">
+        <v>185.07101097033</v>
+      </c>
+      <c r="S23">
+        <v>0.0002911822232154409</v>
+      </c>
+      <c r="T23">
+        <v>0.0002918523768020234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H24">
+        <v>64.018697</v>
+      </c>
+      <c r="I24">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J24">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>102.566826</v>
+      </c>
+      <c r="N24">
+        <v>307.700478</v>
+      </c>
+      <c r="O24">
+        <v>0.5363407933948394</v>
+      </c>
+      <c r="P24">
+        <v>0.5371339902537582</v>
+      </c>
+      <c r="Q24">
+        <v>2188.731518648574</v>
+      </c>
+      <c r="R24">
+        <v>19698.58366783717</v>
+      </c>
+      <c r="S24">
+        <v>0.03099284624060197</v>
+      </c>
+      <c r="T24">
+        <v>0.03106417603140165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H25">
+        <v>64.018697</v>
+      </c>
+      <c r="I25">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J25">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.8471995</v>
+      </c>
+      <c r="N25">
+        <v>1.694399</v>
+      </c>
+      <c r="O25">
+        <v>0.004430161970632797</v>
+      </c>
+      <c r="P25">
+        <v>0.002957809171658088</v>
+      </c>
+      <c r="Q25">
+        <v>18.07886936301717</v>
+      </c>
+      <c r="R25">
+        <v>108.473216178103</v>
+      </c>
+      <c r="S25">
+        <v>0.0002560001597262537</v>
+      </c>
+      <c r="T25">
+        <v>0.0001710595613810874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H26">
+        <v>64.018697</v>
+      </c>
+      <c r="I26">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J26">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>86.72805799999999</v>
+      </c>
+      <c r="N26">
+        <v>260.184174</v>
+      </c>
+      <c r="O26">
+        <v>0.4535169630511297</v>
+      </c>
+      <c r="P26">
+        <v>0.4541876713675373</v>
+      </c>
+      <c r="Q26">
+        <v>1850.739088833475</v>
+      </c>
+      <c r="R26">
+        <v>16656.65179950128</v>
+      </c>
+      <c r="S26">
+        <v>0.02620681043927409</v>
+      </c>
+      <c r="T26">
+        <v>0.02626712520648355</v>
       </c>
     </row>
   </sheetData>
